--- a/data/strategies/西部场内策略结果.xlsx
+++ b/data/strategies/西部场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
+  <si>
+    <t>广发中证全指可选消费ETF</t>
+  </si>
+  <si>
+    <t>国泰中证全指家电ETF</t>
+  </si>
+  <si>
+    <t>易方达沪深300非银ETF</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
   <si>
-    <t>广发中证全指可选消费ETF</t>
-  </si>
-  <si>
-    <t>易方达沪深300非银ETF</t>
-  </si>
-  <si>
     <t>国泰中证800汽车与零部件ETF</t>
   </si>
   <si>
-    <t>国泰中证全指家电ETF</t>
-  </si>
-  <si>
     <t>周期+金融</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-0.03%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>9.10%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>2.46%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>13.40%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>6.03%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>2.05%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>16.36%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
   </si>
   <si>
     <t>15.98%</t>
   </si>
   <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>20.68%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>19.82%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,109 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159936.OF</t>
+  </si>
+  <si>
+    <t>159996.OF</t>
+  </si>
+  <si>
+    <t>512070.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
-    <t>159936.OF</t>
-  </si>
-  <si>
-    <t>512070.OF</t>
-  </si>
-  <si>
     <t>516110.OF</t>
   </si>
   <si>
-    <t>159996.OF</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>-3.21%</t>
-  </si>
-  <si>
-    <t>15.03%</t>
-  </si>
-  <si>
-    <t>-1.94%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>-1.28%</t>
-  </si>
-  <si>
-    <t>30.35%</t>
-  </si>
-  <si>
-    <t>7.60%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>-11.74%</t>
-  </si>
-  <si>
-    <t>13.02%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>15.12%</t>
-  </si>
-  <si>
-    <t>30.68%</t>
-  </si>
-  <si>
-    <t>9.97%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>20.76%</t>
-  </si>
-  <si>
-    <t>29.86%</t>
-  </si>
-  <si>
-    <t>15.06%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>19.87%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>32.45%</t>
-  </si>
-  <si>
-    <t>20.26%</t>
+    <t>-1.30%</t>
+  </si>
+  <si>
+    <t>-2.45%</t>
+  </si>
+  <si>
+    <t>-7.82%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-0.33%</t>
+  </si>
+  <si>
+    <t>-6.88%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>24.68%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-17.77%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>35.10%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>15.26%</t>
+  </si>
+  <si>
+    <t>22.08%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>20.05%</t>
+  </si>
+  <si>
+    <t>22.68%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>32.18%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,7 +254,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601318.SH</t>
@@ -269,115 +266,115 @@
     <t>000651.SZ</t>
   </si>
   <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
     <t>600690.SH</t>
   </si>
   <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
     <t>603486.SH</t>
   </si>
   <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
     <t>300059.SZ</t>
   </si>
   <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
     <t>600030.SH</t>
   </si>
   <si>
+    <t>688169.SH</t>
+  </si>
+  <si>
     <t>600660.SH</t>
   </si>
   <si>
     <t>600104.SH</t>
   </si>
   <si>
-    <t>603799.SH</t>
+    <t>000625.SZ</t>
+  </si>
+  <si>
+    <t>601633.SH</t>
   </si>
   <si>
     <t>002508.SZ</t>
   </si>
   <si>
-    <t>000625.SZ</t>
-  </si>
-  <si>
-    <t>601633.SH</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
+    <t>600837.SH</t>
+  </si>
+  <si>
+    <t>600741.SH</t>
   </si>
   <si>
     <t>601601.SH</t>
   </si>
   <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>6.07%</t>
-  </si>
-  <si>
-    <t>5.35%</t>
-  </si>
-  <si>
-    <t>4.57%</t>
-  </si>
-  <si>
-    <t>4.12%</t>
-  </si>
-  <si>
-    <t>2.76%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>2.65%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>2.05%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>1.62%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>0.96%</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>0.87%</t>
+    <t>603195.SH</t>
+  </si>
+  <si>
+    <t>002027.SZ</t>
+  </si>
+  <si>
+    <t>579.84%</t>
+  </si>
+  <si>
+    <t>559.10%</t>
+  </si>
+  <si>
+    <t>485.86%</t>
+  </si>
+  <si>
+    <t>360.98%</t>
+  </si>
+  <si>
+    <t>346.98%</t>
+  </si>
+  <si>
+    <t>269.91%</t>
+  </si>
+  <si>
+    <t>236.82%</t>
+  </si>
+  <si>
+    <t>225.78%</t>
+  </si>
+  <si>
+    <t>176.92%</t>
+  </si>
+  <si>
+    <t>173.76%</t>
+  </si>
+  <si>
+    <t>170.66%</t>
+  </si>
+  <si>
+    <t>167.82%</t>
+  </si>
+  <si>
+    <t>129.92%</t>
+  </si>
+  <si>
+    <t>115.90%</t>
+  </si>
+  <si>
+    <t>114.00%</t>
+  </si>
+  <si>
+    <t>92.46%</t>
+  </si>
+  <si>
+    <t>90.25%</t>
+  </si>
+  <si>
+    <t>82.56%</t>
+  </si>
+  <si>
+    <t>81.51%</t>
+  </si>
+  <si>
+    <t>78.15%</t>
   </si>
   <si>
     <t>中国平安</t>
@@ -389,55 +386,55 @@
     <t>格力电器</t>
   </si>
   <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
     <t>海尔智家</t>
   </si>
   <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
     <t>科沃斯</t>
   </si>
   <si>
     <t>中国中免</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
     <t>东方财富</t>
   </si>
   <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
     <t>中信证券</t>
   </si>
   <si>
+    <t>石头科技</t>
+  </si>
+  <si>
     <t>福耀玻璃</t>
   </si>
   <si>
     <t>上汽集团</t>
   </si>
   <si>
-    <t>华友钴业</t>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
   </si>
   <si>
     <t>老板电器</t>
   </si>
   <si>
-    <t>长安汽车</t>
-  </si>
-  <si>
-    <t>长城汽车</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
+    <t>海通证券</t>
+  </si>
+  <si>
+    <t>华域汽车</t>
   </si>
   <si>
     <t>中国太保</t>
   </si>
   <si>
-    <t>格林美</t>
+    <t>公牛集团</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
   </si>
   <si>
     <t>产险:机动车辆保险</t>
@@ -449,25 +446,22 @@
     <t>空调</t>
   </si>
   <si>
+    <t>汽车</t>
+  </si>
+  <si>
     <t>电冰箱</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
     <t>服务机器人</t>
   </si>
   <si>
     <t>商品贸易-免税商品</t>
   </si>
   <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
     <t>证券经纪业务</t>
   </si>
   <si>
-    <t>加工、冶炼及贸易金</t>
+    <t>智能扫地机</t>
   </si>
   <si>
     <t>汽车玻璃</t>
@@ -476,85 +470,85 @@
     <t>整车业务</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>整车</t>
+  </si>
+  <si>
+    <t>销售汽车收入</t>
   </si>
   <si>
     <t>油烟机</t>
   </si>
   <si>
-    <t>整车</t>
-  </si>
-  <si>
-    <t>销售汽车收入</t>
-  </si>
-  <si>
-    <t>其他业务</t>
+    <t>内外饰件</t>
   </si>
   <si>
     <t>个人寿险</t>
   </si>
   <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>20.29%</t>
+    <t>电连接产品</t>
+  </si>
+  <si>
+    <t>楼宇媒体</t>
+  </si>
+  <si>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
   </si>
   <si>
     <t>-8.19%</t>
   </si>
   <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>24.06%</t>
-  </si>
-  <si>
-    <t>20.38%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-16.40%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>15.33%</t>
+  </si>
+  <si>
+    <t>-10.69%</t>
+  </si>
+  <si>
+    <t>38.97%</t>
+  </si>
+  <si>
+    <t>32.81%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>-16.96%</t>
+  </si>
+  <si>
+    <t>-20.79%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -563,49 +557,43 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
+    <t>家用电器</t>
   </si>
   <si>
     <t>保险</t>
   </si>
   <si>
-    <t>锂电池</t>
-  </si>
-  <si>
     <t>证券</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>机械设备</t>
-  </si>
-  <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>32.75%</t>
-  </si>
-  <si>
-    <t>17.26%</t>
-  </si>
-  <si>
-    <t>14.86%</t>
-  </si>
-  <si>
-    <t>9.50%</t>
-  </si>
-  <si>
-    <t>8.06%</t>
-  </si>
-  <si>
-    <t>6.21%</t>
-  </si>
-  <si>
-    <t>5.74%</t>
-  </si>
-  <si>
-    <t>5.63%</t>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>营销服务</t>
+  </si>
+  <si>
+    <t>24.37%</t>
+  </si>
+  <si>
+    <t>12.94%</t>
+  </si>
+  <si>
+    <t>8.28%</t>
+  </si>
+  <si>
+    <t>6.19%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>0.98%</t>
   </si>
 </sst>
 </file>
@@ -969,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1038,22 +1026,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.056768131545464</v>
+        <v>1.015851517431653</v>
       </c>
       <c r="C3">
-        <v>1.015851517431653</v>
+        <v>1.012875845202129</v>
       </c>
       <c r="D3">
         <v>0.9975679270378113</v>
       </c>
       <c r="E3">
+        <v>1.056768131545464</v>
+      </c>
+      <c r="F3">
         <v>1.022728363373248</v>
       </c>
-      <c r="F3">
-        <v>1.012875845202129</v>
-      </c>
       <c r="G3">
-        <v>1.020470672323901</v>
+        <v>1.016769128283728</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1067,22 +1055,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.068219633943428</v>
+        <v>1.023275645849009</v>
       </c>
       <c r="C4">
-        <v>1.023275645849009</v>
+        <v>1.0337361530715</v>
       </c>
       <c r="D4">
         <v>0.9930837925137755</v>
       </c>
       <c r="E4">
+        <v>1.068219633943428</v>
+      </c>
+      <c r="F4">
         <v>1.021860567760362</v>
       </c>
-      <c r="F4">
-        <v>1.0337361530715</v>
-      </c>
       <c r="G4">
-        <v>1.02817666643648</v>
+        <v>1.024586810540422</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1096,22 +1084,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.073407066653616</v>
+        <v>1.014296463506396</v>
       </c>
       <c r="C5">
-        <v>1.014296463506396</v>
+        <v>1.02639907926917</v>
       </c>
       <c r="D5">
         <v>1.001634049021471</v>
       </c>
       <c r="E5">
+        <v>1.073407066653616</v>
+      </c>
+      <c r="F5">
         <v>1.019809446993545</v>
       </c>
-      <c r="F5">
-        <v>1.02639907926917</v>
-      </c>
       <c r="G5">
-        <v>1.026557922740125</v>
+        <v>1.022408422350395</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1125,22 +1113,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.115102280512871</v>
+        <v>1.024780536744419</v>
       </c>
       <c r="C6">
-        <v>1.024780536744419</v>
+        <v>1.041145158969932</v>
       </c>
       <c r="D6">
         <v>1.012540376211286</v>
       </c>
       <c r="E6">
+        <v>1.115102280512871</v>
+      </c>
+      <c r="F6">
         <v>1.044954665597853</v>
       </c>
-      <c r="F6">
-        <v>1.041145158969932</v>
-      </c>
       <c r="G6">
-        <v>1.045687190721929</v>
+        <v>1.040308891452979</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1154,22 +1142,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.111187236958011</v>
+        <v>1.02879357913218</v>
       </c>
       <c r="C7">
-        <v>1.02879357913218</v>
+        <v>1.049201553733276</v>
       </c>
       <c r="D7">
         <v>1.00714421432643</v>
       </c>
       <c r="E7">
+        <v>1.111187236958011</v>
+      </c>
+      <c r="F7">
         <v>1.068292471217046</v>
       </c>
-      <c r="F7">
-        <v>1.049201553733276</v>
-      </c>
       <c r="G7">
-        <v>1.048973921864902</v>
+        <v>1.046725242750915</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1183,22 +1171,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.063717333855339</v>
+        <v>1.029245046400803</v>
       </c>
       <c r="C8">
-        <v>1.029245046400803</v>
+        <v>1.029707955689829</v>
       </c>
       <c r="D8">
         <v>0.9839255177655329</v>
       </c>
       <c r="E8">
+        <v>1.063717333855339</v>
+      </c>
+      <c r="F8">
         <v>1.097743968548195</v>
       </c>
-      <c r="F8">
-        <v>1.029707955689829</v>
-      </c>
       <c r="G8">
-        <v>1.034018072237201</v>
+        <v>1.037467026635389</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1212,22 +1200,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.08808847998434</v>
+        <v>1.049410584399298</v>
       </c>
       <c r="C9">
-        <v>1.049410584399298</v>
+        <v>1.065242411163861</v>
       </c>
       <c r="D9">
         <v>1.044043321299639</v>
       </c>
       <c r="E9">
+        <v>1.08808847998434</v>
+      </c>
+      <c r="F9">
         <v>1.100968630884336</v>
       </c>
-      <c r="F9">
-        <v>1.065242411163861</v>
-      </c>
       <c r="G9">
-        <v>1.064394880897791</v>
+        <v>1.067266078664247</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1241,22 +1229,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.05392972496819</v>
+        <v>1.045949335339855</v>
       </c>
       <c r="C10">
-        <v>1.045949335339855</v>
+        <v>1.073514602215508</v>
       </c>
       <c r="D10">
         <v>1.028956868706061</v>
       </c>
       <c r="E10">
+        <v>1.05392972496819</v>
+      </c>
+      <c r="F10">
         <v>1.096297285026672</v>
       </c>
-      <c r="F10">
-        <v>1.073514602215508</v>
-      </c>
       <c r="G10">
-        <v>1.054694768282576</v>
+        <v>1.061688050975989</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1270,22 +1258,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.032984241949692</v>
+        <v>1.024028091296714</v>
       </c>
       <c r="C11">
-        <v>1.024028091296714</v>
+        <v>1.051647245000719</v>
       </c>
       <c r="D11">
         <v>1.004712141364241</v>
       </c>
       <c r="E11">
+        <v>1.032984241949692</v>
+      </c>
+      <c r="F11">
         <v>1.057061047172691</v>
       </c>
-      <c r="F11">
-        <v>1.051647245000719</v>
-      </c>
       <c r="G11">
-        <v>1.030783257769214</v>
+        <v>1.035952853661914</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1299,22 +1287,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.043750611725555</v>
+        <v>1.028342111863557</v>
       </c>
       <c r="C12">
-        <v>1.028342111863557</v>
+        <v>1.056394763343404</v>
       </c>
       <c r="D12">
         <v>1.01212236367091</v>
       </c>
       <c r="E12">
+        <v>1.043750611725555</v>
+      </c>
+      <c r="F12">
         <v>1.056625612116048</v>
       </c>
-      <c r="F12">
-        <v>1.056394763343404</v>
-      </c>
       <c r="G12">
-        <v>1.036618742518646</v>
+        <v>1.04071150770568</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1328,22 +1316,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.059508662033865</v>
+        <v>1.037020316027088</v>
       </c>
       <c r="C13">
-        <v>1.037020316027088</v>
+        <v>1.069486404833837</v>
       </c>
       <c r="D13">
         <v>1.019950598517956</v>
       </c>
       <c r="E13">
+        <v>1.059508662033865</v>
+      </c>
+      <c r="F13">
         <v>1.05322523850705</v>
       </c>
-      <c r="F13">
-        <v>1.069486404833837</v>
-      </c>
       <c r="G13">
-        <v>1.046217751735963</v>
+        <v>1.048836018263956</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1357,22 +1345,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.022413624351571</v>
+        <v>1.022523200401304</v>
       </c>
       <c r="C14">
-        <v>1.022523200401304</v>
+        <v>1.051359516616314</v>
       </c>
       <c r="D14">
         <v>1.018696560896827</v>
       </c>
       <c r="E14">
+        <v>1.022413624351571</v>
+      </c>
+      <c r="F14">
         <v>1.035860591331532</v>
       </c>
-      <c r="F14">
-        <v>1.051359516616314</v>
-      </c>
       <c r="G14">
-        <v>1.028836959626487</v>
+        <v>1.033065287945984</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1386,22 +1374,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.053146716257218</v>
+        <v>1.031101078505142</v>
       </c>
       <c r="C15">
-        <v>1.031101078505142</v>
+        <v>1.054308732556467</v>
       </c>
       <c r="D15">
         <v>1.010032300969029</v>
       </c>
       <c r="E15">
+        <v>1.053146716257218</v>
+      </c>
+      <c r="F15">
         <v>1.059142054943396</v>
       </c>
-      <c r="F15">
-        <v>1.054308732556467</v>
-      </c>
       <c r="G15">
-        <v>1.038742079002425</v>
+        <v>1.041662378276175</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1415,22 +1403,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.090535382206127</v>
+        <v>1.04484574868322</v>
       </c>
       <c r="C16">
-        <v>1.04484574868322</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="D16">
         <v>1.016264487934638</v>
       </c>
       <c r="E16">
+        <v>1.090535382206127</v>
+      </c>
+      <c r="F16">
         <v>1.078399462281797</v>
       </c>
-      <c r="F16">
-        <v>1.071428571428571</v>
-      </c>
       <c r="G16">
-        <v>1.056939359147013</v>
+        <v>1.058384049429115</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1444,22 +1432,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.10061661935989</v>
+        <v>1.048758465011287</v>
       </c>
       <c r="C17">
-        <v>1.048758465011287</v>
+        <v>1.06855128758452</v>
       </c>
       <c r="D17">
         <v>0.9974539236177086</v>
       </c>
       <c r="E17">
+        <v>1.10061661935989</v>
+      </c>
+      <c r="F17">
         <v>1.088197609056373</v>
       </c>
-      <c r="F17">
-        <v>1.06855128758452</v>
-      </c>
       <c r="G17">
-        <v>1.056771666521447</v>
+        <v>1.057509047748419</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1473,22 +1461,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.116178917490457</v>
+        <v>1.05472786556308</v>
       </c>
       <c r="C18">
-        <v>1.05472786556308</v>
+        <v>1.070421522083153</v>
       </c>
       <c r="D18">
         <v>1.000646019380582</v>
       </c>
       <c r="E18">
+        <v>1.116178917490457</v>
+      </c>
+      <c r="F18">
         <v>1.103486027045141</v>
       </c>
-      <c r="F18">
-        <v>1.070421522083153</v>
-      </c>
       <c r="G18">
-        <v>1.064216254164277</v>
+        <v>1.064516330771752</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1502,22 +1490,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.09601644318293</v>
+        <v>1.033860045146727</v>
       </c>
       <c r="C19">
-        <v>1.033860045146727</v>
+        <v>1.042511868795857</v>
       </c>
       <c r="D19">
         <v>0.9682690480714422</v>
       </c>
       <c r="E19">
+        <v>1.09601644318293</v>
+      </c>
+      <c r="F19">
         <v>1.080071013332571</v>
       </c>
-      <c r="F19">
-        <v>1.042511868795857</v>
-      </c>
       <c r="G19">
-        <v>1.039524586887321</v>
+        <v>1.038795226267198</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1531,22 +1519,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.089262993050798</v>
+        <v>1.038525206922498</v>
       </c>
       <c r="C20">
-        <v>1.038525206922498</v>
+        <v>1.043303121852971</v>
       </c>
       <c r="D20">
         <v>0.9697130913927419</v>
       </c>
       <c r="E20">
+        <v>1.089262993050798</v>
+      </c>
+      <c r="F20">
         <v>1.081326315162532</v>
       </c>
-      <c r="F20">
-        <v>1.043303121852971</v>
-      </c>
       <c r="G20">
-        <v>1.040146034852305</v>
+        <v>1.039830158556525</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1560,22 +1548,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.049133796613487</v>
+        <v>1.011336844745423</v>
       </c>
       <c r="C21">
-        <v>1.011336844745423</v>
+        <v>1.008703783628255</v>
       </c>
       <c r="D21">
         <v>0.955386661599848</v>
       </c>
       <c r="E21">
+        <v>1.049133796613487</v>
+      </c>
+      <c r="F21">
         <v>1.044105364654039</v>
       </c>
-      <c r="F21">
-        <v>1.008703783628255</v>
-      </c>
       <c r="G21">
-        <v>1.010456438257349</v>
+        <v>1.009690288949687</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1589,22 +1577,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.036312028971322</v>
+        <v>1.006621519939804</v>
       </c>
       <c r="C22">
-        <v>1.006621519939804</v>
+        <v>1.001654438210329</v>
       </c>
       <c r="D22">
         <v>0.9400722021660651</v>
       </c>
       <c r="E22">
+        <v>1.036312028971322</v>
+      </c>
+      <c r="F22">
         <v>1.036451669991755</v>
       </c>
-      <c r="F22">
-        <v>1.001654438210329</v>
-      </c>
       <c r="G22">
-        <v>1.00123935685066</v>
+        <v>1.000756612779756</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1618,22 +1606,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.048155035724772</v>
+        <v>1.018008527715074</v>
       </c>
       <c r="C23">
-        <v>1.018008527715074</v>
+        <v>1.010789814415192</v>
       </c>
       <c r="D23">
         <v>0.9410982329469885</v>
       </c>
       <c r="E23">
+        <v>1.048155035724772</v>
+      </c>
+      <c r="F23">
         <v>1.032151528349045</v>
       </c>
-      <c r="F23">
-        <v>1.010789814415192</v>
-      </c>
       <c r="G23">
-        <v>1.008626327766817</v>
+        <v>1.006304105699256</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1647,22 +1635,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.078790251541548</v>
+        <v>1.049260095309757</v>
       </c>
       <c r="C24">
-        <v>1.049260095309757</v>
+        <v>1.038052078837577</v>
       </c>
       <c r="D24">
         <v>0.9400722021660651</v>
       </c>
       <c r="E24">
+        <v>1.078790251541548</v>
+      </c>
+      <c r="F24">
         <v>1.089845636604087</v>
       </c>
-      <c r="F24">
-        <v>1.038052078837577</v>
-      </c>
       <c r="G24">
-        <v>1.035145498762374</v>
+        <v>1.03513023562141</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1676,22 +1664,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.084564940784966</v>
+        <v>1.043140205668422</v>
       </c>
       <c r="C25">
-        <v>1.043140205668422</v>
+        <v>1.028341245863904</v>
       </c>
       <c r="D25">
         <v>0.9262397871936158</v>
       </c>
       <c r="E25">
+        <v>1.084564940784966</v>
+      </c>
+      <c r="F25">
         <v>1.079667228946712</v>
       </c>
-      <c r="F25">
-        <v>1.028341245863904</v>
-      </c>
       <c r="G25">
-        <v>1.028737979363695</v>
+        <v>1.026768312199418</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1705,22 +1693,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.040227072526182</v>
+        <v>1.02979683972912</v>
       </c>
       <c r="C26">
-        <v>1.02979683972912</v>
+        <v>1.022874406560207</v>
       </c>
       <c r="D26">
         <v>0.9252897586927608</v>
       </c>
       <c r="E26">
+        <v>1.040227072526182</v>
+      </c>
+      <c r="F26">
         <v>1.070023653275577</v>
       </c>
-      <c r="F26">
-        <v>1.022874406560207</v>
-      </c>
       <c r="G26">
-        <v>1.013619664802123</v>
+        <v>1.015907079560172</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1734,22 +1722,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.9885484976020358</v>
+        <v>1.022222222222222</v>
       </c>
       <c r="C27">
-        <v>1.022222222222222</v>
+        <v>1.025751690404258</v>
       </c>
       <c r="D27">
         <v>0.9236177085312559</v>
       </c>
       <c r="E27">
+        <v>0.9885484976020358</v>
+      </c>
+      <c r="F27">
         <v>1.035722143480189</v>
       </c>
-      <c r="F27">
-        <v>1.025751690404258</v>
-      </c>
       <c r="G27">
-        <v>0.9978224603221957</v>
+        <v>1.002892771728215</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1763,22 +1751,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.028873446217089</v>
+        <v>1.032054176072235</v>
       </c>
       <c r="C28">
-        <v>1.032054176072235</v>
+        <v>1.02639907926917</v>
       </c>
       <c r="D28">
         <v>0.9192855785673569</v>
       </c>
       <c r="E28">
+        <v>1.028873446217089</v>
+      </c>
+      <c r="F28">
         <v>1.051789351486931</v>
       </c>
-      <c r="F28">
-        <v>1.02639907926917</v>
-      </c>
       <c r="G28">
-        <v>1.009706808781087</v>
+        <v>1.011432889627764</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1792,22 +1780,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.080062640696878</v>
+        <v>1.052821670428894</v>
       </c>
       <c r="C29">
-        <v>1.052821670428894</v>
+        <v>1.045245288447705</v>
       </c>
       <c r="D29">
         <v>0.9342580277408322</v>
       </c>
       <c r="E29">
+        <v>1.080062640696878</v>
+      </c>
+      <c r="F29">
         <v>1.072590956442874</v>
       </c>
-      <c r="F29">
-        <v>1.045245288447705</v>
-      </c>
       <c r="G29">
-        <v>1.035018788150039</v>
+        <v>1.033513981526519</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1821,22 +1809,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.108936086913967</v>
+        <v>1.075545522949586</v>
       </c>
       <c r="C30">
-        <v>1.075545522949586</v>
+        <v>1.05732988059272</v>
       </c>
       <c r="D30">
         <v>0.9400342010260309</v>
       </c>
       <c r="E30">
+        <v>1.108936086913967</v>
+      </c>
+      <c r="F30">
         <v>1.091414025058108</v>
       </c>
-      <c r="F30">
-        <v>1.05732988059272</v>
-      </c>
       <c r="G30">
-        <v>1.05306509309723</v>
+        <v>1.049491322675958</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1850,22 +1838,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.181070764412254</v>
+        <v>1.069525959367946</v>
       </c>
       <c r="C31">
-        <v>1.069525959367946</v>
+        <v>1.035462523377931</v>
       </c>
       <c r="D31">
         <v>0.9569067072012161</v>
       </c>
       <c r="E31">
+        <v>1.181070764412254</v>
+      </c>
+      <c r="F31">
         <v>1.092005818718424</v>
       </c>
-      <c r="F31">
-        <v>1.035462523377931</v>
-      </c>
       <c r="G31">
-        <v>1.064746368680506</v>
+        <v>1.052433530512122</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1879,22 +1867,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.197513947342664</v>
+        <v>1.071281665412591</v>
       </c>
       <c r="C32">
-        <v>1.071281665412591</v>
+        <v>1.032441375341677</v>
       </c>
       <c r="D32">
         <v>0.975793273798214</v>
       </c>
       <c r="E32">
+        <v>1.197513947342664</v>
+      </c>
+      <c r="F32">
         <v>1.081714619796377</v>
       </c>
-      <c r="F32">
-        <v>1.032441375341677</v>
-      </c>
       <c r="G32">
-        <v>1.070705680899926</v>
+        <v>1.055241719138206</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1908,22 +1896,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.254477831065871</v>
+        <v>1.030850263355907</v>
       </c>
       <c r="C33">
-        <v>1.030850263355907</v>
+        <v>0.9864767659329592</v>
       </c>
       <c r="D33">
         <v>0.9541326239787195</v>
       </c>
       <c r="E33">
+        <v>1.254477831065871</v>
+      </c>
+      <c r="F33">
         <v>1.033261125076718</v>
       </c>
-      <c r="F33">
-        <v>0.9864767659329592</v>
-      </c>
       <c r="G33">
-        <v>1.051598635709954</v>
+        <v>1.025039615368744</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1937,22 +1925,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.237055887246746</v>
+        <v>1.018610484073238</v>
       </c>
       <c r="C34">
-        <v>1.018610484073238</v>
+        <v>0.9871241547978707</v>
       </c>
       <c r="D34">
         <v>0.9592627778833366</v>
       </c>
       <c r="E34">
+        <v>1.237055887246746</v>
+      </c>
+      <c r="F34">
         <v>1.007561411983614</v>
       </c>
-      <c r="F34">
-        <v>0.9871241547978707</v>
-      </c>
       <c r="G34">
-        <v>1.043027850405923</v>
+        <v>1.016929769952074</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1966,22 +1954,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.182343153567583</v>
+        <v>1.007424128417356</v>
       </c>
       <c r="C35">
-        <v>1.007424128417356</v>
+        <v>0.991296216371745</v>
       </c>
       <c r="D35">
         <v>0.9512445373361201</v>
       </c>
       <c r="E35">
+        <v>1.182343153567583</v>
+      </c>
+      <c r="F35">
         <v>0.9763674236757957</v>
       </c>
-      <c r="F35">
-        <v>0.991296216371745</v>
-      </c>
       <c r="G35">
-        <v>1.024840762347876</v>
+        <v>1.002630398154136</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1995,22 +1983,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>1.168934129392189</v>
+        <v>1.007975921745673</v>
       </c>
       <c r="C36">
-        <v>1.007975921745673</v>
+        <v>0.9933822471586822</v>
       </c>
       <c r="D36">
         <v>0.9687250617518526</v>
       </c>
       <c r="E36">
+        <v>1.168934129392189</v>
+      </c>
+      <c r="F36">
         <v>0.9720005129410668</v>
       </c>
-      <c r="F36">
-        <v>0.9933822471586822</v>
-      </c>
       <c r="G36">
-        <v>1.025801115478354</v>
+        <v>1.004648386374542</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2024,22 +2012,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>1.116766174023686</v>
+        <v>0.9890644594933534</v>
       </c>
       <c r="C37">
-        <v>0.9890644594933534</v>
+        <v>0.974104445403539</v>
       </c>
       <c r="D37">
         <v>0.9473684210526315</v>
       </c>
       <c r="E37">
+        <v>1.116766174023686</v>
+      </c>
+      <c r="F37">
         <v>0.9466977083162603</v>
       </c>
-      <c r="F37">
-        <v>0.974104445403539</v>
-      </c>
       <c r="G37">
-        <v>0.9990369167756034</v>
+        <v>0.9805340687958793</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2053,22 +2041,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>1.158069883527454</v>
+        <v>1.013844996237773</v>
       </c>
       <c r="C38">
-        <v>1.013844996237773</v>
+        <v>0.9908646237951373</v>
       </c>
       <c r="D38">
         <v>0.9411742352270569</v>
       </c>
       <c r="E38">
+        <v>1.158069883527454</v>
+      </c>
+      <c r="F38">
         <v>0.9720432222799559</v>
       </c>
-      <c r="F38">
-        <v>0.9908646237951373</v>
-      </c>
       <c r="G38">
-        <v>1.019379569609257</v>
+        <v>0.9984788662402437</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2082,22 +2070,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>1.119213076245473</v>
+        <v>1.00887885628292</v>
       </c>
       <c r="C39">
-        <v>1.00887885628292</v>
+        <v>0.9925190620054667</v>
       </c>
       <c r="D39">
         <v>0.9288238647159415</v>
       </c>
       <c r="E39">
+        <v>1.119213076245473</v>
+      </c>
+      <c r="F39">
         <v>0.9692999218397649</v>
       </c>
-      <c r="F39">
-        <v>0.9925190620054667</v>
-      </c>
       <c r="G39">
-        <v>1.007704849662229</v>
+        <v>0.9910775547939126</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2111,22 +2099,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>1.160908290104727</v>
+        <v>1.018459994983697</v>
       </c>
       <c r="C40">
-        <v>1.018459994983697</v>
+        <v>0.9920874694288591</v>
       </c>
       <c r="D40">
         <v>0.9545126353790614</v>
       </c>
       <c r="E40">
+        <v>1.160908290104727</v>
+      </c>
+      <c r="F40">
         <v>0.9780692073138362</v>
       </c>
-      <c r="F40">
-        <v>0.9920874694288591</v>
-      </c>
       <c r="G40">
-        <v>1.024846598209022</v>
+        <v>1.003925437374449</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2140,22 +2128,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>1.115395908779485</v>
+        <v>0.9931778279408076</v>
       </c>
       <c r="C41">
-        <v>0.9931778279408076</v>
+        <v>0.9651848654869803</v>
       </c>
       <c r="D41">
         <v>0.9407562226866806</v>
       </c>
       <c r="E41">
+        <v>1.115395908779485</v>
+      </c>
+      <c r="F41">
         <v>0.9442258099947074</v>
       </c>
-      <c r="F41">
-        <v>0.9651848654869803</v>
-      </c>
       <c r="G41">
-        <v>0.9966433287723423</v>
+        <v>0.9767270226484818</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2169,22 +2157,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>1.077713614563962</v>
+        <v>0.9967895660897919</v>
       </c>
       <c r="C42">
-        <v>0.9967895660897919</v>
+        <v>0.9661919148323981</v>
       </c>
       <c r="D42">
         <v>0.9410982329469885</v>
       </c>
       <c r="E42">
+        <v>1.077713614563962</v>
+      </c>
+      <c r="F42">
         <v>0.951029047796362</v>
       </c>
-      <c r="F42">
-        <v>0.9661919148323981</v>
-      </c>
       <c r="G42">
-        <v>0.9911405270752435</v>
+        <v>0.9754123052727441</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2198,22 +2186,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>1.047861407458158</v>
+        <v>0.965237020316027</v>
       </c>
       <c r="C43">
-        <v>0.965237020316027</v>
+        <v>0.9448280822903178</v>
       </c>
       <c r="D43">
         <v>0.9316739502185066</v>
       </c>
       <c r="E43">
+        <v>1.047861407458158</v>
+      </c>
+      <c r="F43">
         <v>0.9067932552086894</v>
       </c>
-      <c r="F43">
-        <v>0.9448280822903178</v>
-      </c>
       <c r="G43">
-        <v>0.9651231196090735</v>
+        <v>0.9489754105815557</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2227,22 +2215,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>1.030733091905647</v>
+        <v>0.9509405568096313</v>
       </c>
       <c r="C44">
-        <v>0.9509405568096313</v>
+        <v>0.9348295209322399</v>
       </c>
       <c r="D44">
         <v>0.9146114383431503</v>
       </c>
       <c r="E44">
+        <v>1.030733091905647</v>
+      </c>
+      <c r="F44">
         <v>0.8846548503288518</v>
       </c>
-      <c r="F44">
-        <v>0.9348295209322399</v>
-      </c>
       <c r="G44">
-        <v>0.9497824623119822</v>
+        <v>0.9335635345665634</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2256,22 +2244,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>1.029852207105804</v>
+        <v>0.9599699021820918</v>
       </c>
       <c r="C45">
-        <v>0.9599699021820918</v>
+        <v>0.9394331750827218</v>
       </c>
       <c r="D45">
         <v>0.9070492114763442</v>
       </c>
       <c r="E45">
+        <v>1.029852207105804</v>
+      </c>
+      <c r="F45">
         <v>0.8972590745517847</v>
       </c>
-      <c r="F45">
-        <v>0.9394331750827218</v>
-      </c>
       <c r="G45">
-        <v>0.95298379684278</v>
+        <v>0.9376708108774412</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2285,22 +2273,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>1.093080160516786</v>
+        <v>0.9728618008527715</v>
       </c>
       <c r="C46">
-        <v>0.9728618008527715</v>
+        <v>0.9529564091497625</v>
       </c>
       <c r="D46">
         <v>0.9280638419152575</v>
       </c>
       <c r="E46">
+        <v>1.093080160516786</v>
+      </c>
+      <c r="F46">
         <v>0.9205758234182384</v>
       </c>
-      <c r="F46">
-        <v>0.9529564091497625</v>
-      </c>
       <c r="G46">
-        <v>0.9787362049140165</v>
+        <v>0.9594952320338608</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2314,22 +2302,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>1.080160516785749</v>
+        <v>0.9780285929270127</v>
       </c>
       <c r="C47">
-        <v>0.9780285929270127</v>
+        <v>0.9540353905912818</v>
       </c>
       <c r="D47">
         <v>0.9239217176515295</v>
       </c>
       <c r="E47">
+        <v>1.080160516785749</v>
+      </c>
+      <c r="F47">
         <v>0.9234232159553034</v>
       </c>
-      <c r="F47">
-        <v>0.9540353905912818</v>
-      </c>
       <c r="G47">
-        <v>0.9773744244793463</v>
+        <v>0.9593013741627286</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2343,22 +2331,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>1.082411666829794</v>
+        <v>0.9645849009280161</v>
       </c>
       <c r="C48">
-        <v>0.9645849009280161</v>
+        <v>0.9337505394907207</v>
       </c>
       <c r="D48">
         <v>0.9116473494204826</v>
       </c>
       <c r="E48">
+        <v>1.082411666829794</v>
+      </c>
+      <c r="F48">
         <v>0.903489132528878</v>
       </c>
-      <c r="F48">
-        <v>0.9337505394907207</v>
-      </c>
       <c r="G48">
-        <v>0.965286294679492</v>
+        <v>0.944310605105671</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2372,22 +2360,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>1.059704414211608</v>
+        <v>0.9754201153749685</v>
       </c>
       <c r="C49">
-        <v>0.9754201153749685</v>
+        <v>0.9460509279240396</v>
       </c>
       <c r="D49">
         <v>0.9165874976249287</v>
       </c>
       <c r="E49">
+        <v>1.059704414211608</v>
+      </c>
+      <c r="F49">
         <v>0.9155694881003309</v>
       </c>
-      <c r="F49">
-        <v>0.9460509279240396</v>
-      </c>
       <c r="G49">
-        <v>0.9686515513746389</v>
+        <v>0.9513011400184184</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2401,22 +2389,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>1.065576979543897</v>
+        <v>0.9900677200902934</v>
       </c>
       <c r="C50">
-        <v>0.9900677200902934</v>
+        <v>0.9653287296791828</v>
       </c>
       <c r="D50">
         <v>0.9044271328139843</v>
       </c>
       <c r="E50">
+        <v>1.065576979543897</v>
+      </c>
+      <c r="F50">
         <v>0.9198825116613835</v>
       </c>
-      <c r="F50">
-        <v>0.9653287296791828</v>
-      </c>
       <c r="G50">
-        <v>0.9760751356006393</v>
+        <v>0.9590317897712769</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2430,22 +2418,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>1.065674855632769</v>
+        <v>0.9987459242538249</v>
       </c>
       <c r="C51">
-        <v>0.9987459242538249</v>
+        <v>0.9708675010789813</v>
       </c>
       <c r="D51">
         <v>0.900019000570017</v>
       </c>
       <c r="E51">
+        <v>1.065674855632769</v>
+      </c>
+      <c r="F51">
         <v>0.9235641782236402</v>
       </c>
-      <c r="F51">
-        <v>0.9708675010789813</v>
-      </c>
       <c r="G51">
-        <v>0.979292466554865</v>
+        <v>0.9622935564964678</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2459,22 +2447,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>1.042869726925712</v>
+        <v>0.9784800601956357</v>
       </c>
       <c r="C52">
-        <v>0.9784800601956357</v>
+        <v>0.9544669831678895</v>
       </c>
       <c r="D52">
         <v>0.8851985559566787</v>
       </c>
       <c r="E52">
+        <v>1.042869726925712</v>
+      </c>
+      <c r="F52">
         <v>0.8998691704746479</v>
       </c>
-      <c r="F52">
-        <v>0.9544669831678895</v>
-      </c>
       <c r="G52">
-        <v>0.9600379883162116</v>
+        <v>0.9433366249683305</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2488,22 +2476,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>1.046491142213957</v>
+        <v>0.9925257085527965</v>
       </c>
       <c r="C53">
-        <v>0.9925257085527965</v>
+        <v>0.9650410012947775</v>
       </c>
       <c r="D53">
         <v>0.8937868136044081</v>
       </c>
       <c r="E53">
+        <v>1.046491142213957</v>
+      </c>
+      <c r="F53">
         <v>0.9143125775201612</v>
       </c>
-      <c r="F53">
-        <v>0.9650410012947775</v>
-      </c>
       <c r="G53">
-        <v>0.9702527617404837</v>
+        <v>0.9542864345453022</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2517,22 +2505,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>1.005970441421161</v>
+        <v>0.9775771256583898</v>
       </c>
       <c r="C54">
-        <v>0.9775771256583898</v>
+        <v>0.956624946050928</v>
       </c>
       <c r="D54">
         <v>0.8977009310279308</v>
       </c>
       <c r="E54">
+        <v>1.005970441421161</v>
+      </c>
+      <c r="F54">
         <v>0.8944794401902005</v>
       </c>
-      <c r="F54">
-        <v>0.956624946050928</v>
-      </c>
       <c r="G54">
-        <v>0.9547803454165409</v>
+        <v>0.9415360273326987</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2546,22 +2534,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.9642752275619065</v>
+        <v>0.9655881615249561</v>
       </c>
       <c r="C55">
-        <v>0.9655881615249561</v>
+        <v>0.9555459646094087</v>
       </c>
       <c r="D55">
         <v>0.8939768193045792</v>
       </c>
       <c r="E55">
+        <v>0.9642752275619065</v>
+      </c>
+      <c r="F55">
         <v>0.8670701022913692</v>
       </c>
-      <c r="F55">
-        <v>0.9555459646094087</v>
-      </c>
       <c r="G55">
-        <v>0.9391430609818026</v>
+        <v>0.9284183287631941</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2575,22 +2563,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.9700499168053244</v>
+        <v>0.9624780536744419</v>
       </c>
       <c r="C56">
-        <v>0.9624780536744419</v>
+        <v>0.9510861746511293</v>
       </c>
       <c r="D56">
         <v>0.8909367281018431</v>
       </c>
       <c r="E56">
+        <v>0.9700499168053244</v>
+      </c>
+      <c r="F56">
         <v>0.866710659827945</v>
       </c>
-      <c r="F56">
-        <v>0.9510861746511293</v>
-      </c>
       <c r="G56">
-        <v>0.9378290459967865</v>
+        <v>0.9263559323967173</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2604,22 +2592,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>1.003132034843887</v>
+        <v>0.9837973413594181</v>
       </c>
       <c r="C57">
-        <v>0.9837973413594181</v>
+        <v>0.972809667673716</v>
       </c>
       <c r="D57">
         <v>0.8989929697890937</v>
       </c>
       <c r="E57">
+        <v>1.003132034843887</v>
+      </c>
+      <c r="F57">
         <v>0.8973457921463985</v>
       </c>
-      <c r="F57">
-        <v>0.972809667673716</v>
-      </c>
       <c r="G57">
-        <v>0.9598607160838049</v>
+        <v>0.9481833244454857</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2633,22 +2621,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.980536744419363</v>
       </c>
       <c r="C58">
-        <v>0.980536744419363</v>
+        <v>0.9838872104733131</v>
       </c>
       <c r="D58">
         <v>0.8953068592057761</v>
       </c>
       <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>0.8886065247595655</v>
       </c>
-      <c r="F58">
-        <v>0.9838872104733131</v>
-      </c>
       <c r="G58">
-        <v>0.9588604897375833</v>
+        <v>0.9480561888189348</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2662,22 +2650,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>1.01380052853088</v>
+        <v>0.982141961374467</v>
       </c>
       <c r="C59">
-        <v>0.982141961374467</v>
+        <v>0.984894259818731</v>
       </c>
       <c r="D59">
         <v>0.8951168535056052</v>
       </c>
       <c r="E59">
+        <v>1.01380052853088</v>
+      </c>
+      <c r="F59">
         <v>0.8993617944919802</v>
       </c>
-      <c r="F59">
-        <v>0.984894259818731</v>
-      </c>
       <c r="G59">
-        <v>0.9633410962325814</v>
+        <v>0.9521724526731178</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2691,22 +2679,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.9898208867573652</v>
+        <v>0.9779784298971658</v>
       </c>
       <c r="C60">
-        <v>0.9779784298971658</v>
+        <v>0.9939577039274923</v>
       </c>
       <c r="D60">
         <v>0.8835265057951739</v>
       </c>
       <c r="E60">
+        <v>0.9898208867573652</v>
+      </c>
+      <c r="F60">
         <v>0.8879317791717923</v>
       </c>
-      <c r="F60">
-        <v>0.9939577039274923</v>
-      </c>
       <c r="G60">
-        <v>0.9556477261823352</v>
+        <v>0.9470567428268106</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2720,22 +2708,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>0.9985318586669276</v>
+        <v>0.9935791321795836</v>
       </c>
       <c r="C61">
-        <v>0.9935791321795836</v>
+        <v>1.003812401093368</v>
       </c>
       <c r="D61">
         <v>0.8909367281018431</v>
       </c>
       <c r="E61">
+        <v>0.9985318586669276</v>
+      </c>
+      <c r="F61">
         <v>0.9056354913080835</v>
       </c>
-      <c r="F61">
-        <v>1.003812401093368</v>
-      </c>
       <c r="G61">
-        <v>0.9672934863571112</v>
+        <v>0.9590271765126053</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2749,22 +2737,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.007047078398747</v>
+        <v>1.006571356909957</v>
       </c>
       <c r="C62">
-        <v>1.006571356909957</v>
+        <v>1.011437203280103</v>
       </c>
       <c r="D62">
         <v>0.8902907087212617</v>
       </c>
       <c r="E62">
+        <v>1.007047078398747</v>
+      </c>
+      <c r="F62">
         <v>0.922055420777376</v>
       </c>
-      <c r="F62">
-        <v>1.011437203280103</v>
-      </c>
       <c r="G62">
-        <v>0.9759319472307473</v>
+        <v>0.9679193661056248</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2778,22 +2766,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>1.012528139375551</v>
+        <v>1.000752445447705</v>
       </c>
       <c r="C63">
-        <v>1.000752445447705</v>
+        <v>1.004675586246583</v>
       </c>
       <c r="D63">
         <v>0.8898346950408513</v>
       </c>
       <c r="E63">
+        <v>1.012528139375551</v>
+      </c>
+      <c r="F63">
         <v>0.9306190483913613</v>
       </c>
-      <c r="F63">
-        <v>1.004675586246583</v>
-      </c>
       <c r="G63">
-        <v>0.9746953226060447</v>
+        <v>0.9668967275875135</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2807,22 +2795,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.024664774395615</v>
+        <v>0.9966390770002508</v>
       </c>
       <c r="C64">
-        <v>0.9966390770002508</v>
+        <v>1.001007049345418</v>
       </c>
       <c r="D64">
         <v>0.8830704921147634</v>
       </c>
       <c r="E64">
+        <v>1.024664774395615</v>
+      </c>
+      <c r="F64">
         <v>0.9187309444282503</v>
       </c>
-      <c r="F64">
-        <v>1.001007049345418</v>
-      </c>
       <c r="G64">
-        <v>0.9726132807140594</v>
+        <v>0.9624566949518397</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2836,22 +2824,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>1.037584418126652</v>
+        <v>0.9962377727614747</v>
       </c>
       <c r="C65">
-        <v>0.9962377727614747</v>
+        <v>1.004459789958279</v>
       </c>
       <c r="D65">
         <v>0.8854645639369181</v>
       </c>
       <c r="E65">
+        <v>1.037584418126652</v>
+      </c>
+      <c r="F65">
         <v>0.9194539763556382</v>
       </c>
-      <c r="F65">
-        <v>1.004459789958279</v>
-      </c>
       <c r="G65">
-        <v>0.9763184838683761</v>
+        <v>0.9653276414109552</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2865,22 +2853,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>1.035039639815993</v>
+        <v>0.9893654376724353</v>
       </c>
       <c r="C66">
-        <v>0.9893654376724353</v>
+        <v>0.9979139692130627</v>
       </c>
       <c r="D66">
         <v>0.8733802014060421</v>
       </c>
       <c r="E66">
+        <v>1.035039639815993</v>
+      </c>
+      <c r="F66">
         <v>0.9024750955636354</v>
       </c>
-      <c r="F66">
-        <v>0.9979139692130627</v>
-      </c>
       <c r="G66">
-        <v>0.9683239029451137</v>
+        <v>0.9559223016739407</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2894,22 +2882,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.9920720368014094</v>
+        <v>0.9704038123902684</v>
       </c>
       <c r="C67">
-        <v>0.9704038123902684</v>
+        <v>0.9800028772838441</v>
       </c>
       <c r="D67">
         <v>0.8619038571157135</v>
       </c>
       <c r="E67">
+        <v>0.9920720368014094</v>
+      </c>
+      <c r="F67">
         <v>0.8845985083215226</v>
       </c>
-      <c r="F67">
-        <v>0.9800028772838441</v>
-      </c>
       <c r="G67">
-        <v>0.9463767487894262</v>
+        <v>0.9365893024307952</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2923,22 +2911,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.9850249584026621</v>
+        <v>0.9554552294958616</v>
       </c>
       <c r="C68">
-        <v>0.9554552294958616</v>
+        <v>0.9721622788088043</v>
       </c>
       <c r="D68">
         <v>0.8583697510925328</v>
       </c>
       <c r="E68">
+        <v>0.9850249584026621</v>
+      </c>
+      <c r="F68">
         <v>0.8888127903697305</v>
       </c>
-      <c r="F68">
-        <v>0.9721622788088043</v>
-      </c>
       <c r="G68">
-        <v>0.9386292455465315</v>
+        <v>0.9306787336745326</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2952,22 +2940,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>1.008515219731819</v>
+        <v>0.9788813644344119</v>
       </c>
       <c r="C69">
-        <v>0.9788813644344119</v>
+        <v>0.9824485685512875</v>
       </c>
       <c r="D69">
         <v>0.8668820064601939</v>
       </c>
       <c r="E69">
+        <v>1.008515219731819</v>
+      </c>
+      <c r="F69">
         <v>0.9093637162930635</v>
       </c>
-      <c r="F69">
-        <v>0.9824485685512875</v>
-      </c>
       <c r="G69">
-        <v>0.9561699399082901</v>
+        <v>0.9466115099761021</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2981,22 +2969,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>1.024273270040129</v>
+        <v>0.9742162026586405</v>
       </c>
       <c r="C70">
-        <v>0.9742162026586405</v>
+        <v>0.9774133218241979</v>
       </c>
       <c r="D70">
         <v>0.8567357020710622</v>
       </c>
       <c r="E70">
+        <v>1.024273270040129</v>
+      </c>
+      <c r="F70">
         <v>0.9070130700706168</v>
       </c>
-      <c r="F70">
-        <v>0.9774133218241979</v>
-      </c>
       <c r="G70">
-        <v>0.9546506265917317</v>
+        <v>0.9432443185113362</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3010,22 +2998,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>1.01840070470784</v>
+        <v>0.9871081013293203</v>
       </c>
       <c r="C71">
-        <v>0.9871081013293203</v>
+        <v>0.9823047043590849</v>
       </c>
       <c r="D71">
         <v>0.8614098422952688</v>
       </c>
       <c r="E71">
+        <v>1.01840070470784</v>
+      </c>
+      <c r="F71">
         <v>0.9331558091380182</v>
       </c>
-      <c r="F71">
-        <v>0.9823047043590849</v>
-      </c>
       <c r="G71">
-        <v>0.9618710615850365</v>
+        <v>0.952866232331031</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3039,22 +3027,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>1.056670255456592</v>
+        <v>1.011286681715576</v>
       </c>
       <c r="C72">
-        <v>1.011286681715576</v>
+        <v>0.9971946482520501</v>
       </c>
       <c r="D72">
         <v>0.8762682880486414</v>
       </c>
       <c r="E72">
+        <v>1.056670255456592</v>
+      </c>
+      <c r="F72">
         <v>0.9901387663838845</v>
       </c>
-      <c r="F72">
-        <v>0.9971946482520501</v>
-      </c>
       <c r="G72">
-        <v>0.9884265195045179</v>
+        <v>0.9803641672508945</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3068,22 +3056,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>1.046784770480572</v>
+        <v>1.00551793328317</v>
       </c>
       <c r="C73">
-        <v>1.00551793328317</v>
+        <v>0.9986332901740756</v>
       </c>
       <c r="D73">
         <v>0.8699600988029641</v>
       </c>
       <c r="E73">
+        <v>1.046784770480572</v>
+      </c>
+      <c r="F73">
         <v>0.9833482079172127</v>
       </c>
-      <c r="F73">
-        <v>0.9986332901740756</v>
-      </c>
       <c r="G73">
-        <v>0.9830658326681947</v>
+        <v>0.9760337121009492</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3097,22 +3085,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>1.039346187726339</v>
+        <v>1.001906195134186</v>
       </c>
       <c r="C74">
-        <v>1.001906195134186</v>
+        <v>0.9987771543662782</v>
       </c>
       <c r="D74">
         <v>0.8667680030400912</v>
       </c>
       <c r="E74">
+        <v>1.039346187726339</v>
+      </c>
+      <c r="F74">
         <v>0.9679485716639767</v>
       </c>
-      <c r="F74">
-        <v>0.9987771543662782</v>
-      </c>
       <c r="G74">
-        <v>0.9783449847331951</v>
+        <v>0.9708923190501682</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3126,22 +3114,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>1.043652735636684</v>
+        <v>1.001755706044645</v>
       </c>
       <c r="C75">
-        <v>1.001755706044645</v>
+        <v>0.9953244137534166</v>
       </c>
       <c r="D75">
         <v>0.8694660839825195</v>
       </c>
       <c r="E75">
+        <v>1.043652735636684</v>
+      </c>
+      <c r="F75">
         <v>0.9633439353149903</v>
       </c>
-      <c r="F75">
-        <v>0.9953244137534166</v>
-      </c>
       <c r="G75">
-        <v>0.9785497520194166</v>
+        <v>0.9698757427581244</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3155,22 +3143,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>1.055006361945777</v>
+        <v>1.002758966641585</v>
       </c>
       <c r="C76">
-        <v>1.002758966641585</v>
+        <v>1.004459789958279</v>
       </c>
       <c r="D76">
         <v>0.8707581227436823</v>
       </c>
       <c r="E76">
+        <v>1.055006361945777</v>
+      </c>
+      <c r="F76">
         <v>0.9602141415745229</v>
       </c>
-      <c r="F76">
-        <v>1.004459789958279</v>
-      </c>
       <c r="G76">
-        <v>0.9828939590794756</v>
+        <v>0.9735848193740196</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3184,22 +3172,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>1.06313007732211</v>
+        <v>0.9956358164033107</v>
       </c>
       <c r="C77">
-        <v>0.9956358164033107</v>
+        <v>0.9968349877715436</v>
       </c>
       <c r="D77">
         <v>0.8542276268288049</v>
       </c>
       <c r="E77">
+        <v>1.06313007732211</v>
+      </c>
+      <c r="F77">
         <v>0.956644908776892</v>
       </c>
-      <c r="F77">
-        <v>0.9968349877715436</v>
-      </c>
       <c r="G77">
-        <v>0.9771937741831741</v>
+        <v>0.9666651744654756</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3213,22 +3201,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.065479103455026</v>
+        <v>0.9970403812390268</v>
       </c>
       <c r="C78">
-        <v>0.9970403812390268</v>
+        <v>1.005107178823191</v>
       </c>
       <c r="D78">
         <v>0.8520235607068213</v>
       </c>
       <c r="E78">
+        <v>1.065479103455026</v>
+      </c>
+      <c r="F78">
         <v>0.946512427958825</v>
       </c>
-      <c r="F78">
-        <v>1.005107178823191</v>
-      </c>
       <c r="G78">
-        <v>0.9782853257645981</v>
+        <v>0.9671953379733945</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3242,22 +3230,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.065870607810512</v>
+        <v>1.006069726611487</v>
       </c>
       <c r="C79">
-        <v>1.006069726611487</v>
+        <v>1.024384980578334</v>
       </c>
       <c r="D79">
         <v>0.8538476154284629</v>
       </c>
       <c r="E79">
+        <v>1.065870607810512</v>
+      </c>
+      <c r="F79">
         <v>0.9559711761059172</v>
       </c>
-      <c r="F79">
-        <v>1.024384980578334</v>
-      </c>
       <c r="G79">
-        <v>0.9862386763574996</v>
+        <v>0.9770802585837248</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3271,22 +3259,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>1.076049721053147</v>
+        <v>1.007424128417356</v>
       </c>
       <c r="C80">
-        <v>1.007424128417356</v>
+        <v>1.040929362681629</v>
       </c>
       <c r="D80">
         <v>0.8710621318639559</v>
       </c>
       <c r="E80">
+        <v>1.076049721053147</v>
+      </c>
+      <c r="F80">
         <v>0.9478260618797069</v>
       </c>
-      <c r="F80">
-        <v>1.040929362681629</v>
-      </c>
       <c r="G80">
-        <v>0.9946180878329238</v>
+        <v>0.9851462453420071</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3300,22 +3288,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.073798571009102</v>
+        <v>1.001555053925257</v>
       </c>
       <c r="C81">
-        <v>1.001555053925257</v>
+        <v>1.028844770536613</v>
       </c>
       <c r="D81">
         <v>0.8592817784533536</v>
       </c>
       <c r="E81">
+        <v>1.073798571009102</v>
+      </c>
+      <c r="F81">
         <v>0.9451254231117322</v>
       </c>
-      <c r="F81">
-        <v>1.028844770536613</v>
-      </c>
       <c r="G81">
-        <v>0.9873640824885643</v>
+        <v>0.9772257393599628</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3329,22 +3317,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>1.10061661935989</v>
+        <v>0.9905693503887634</v>
       </c>
       <c r="C82">
-        <v>0.9905693503887634</v>
+        <v>1.025679758308157</v>
       </c>
       <c r="D82">
         <v>0.8473114193425803</v>
       </c>
       <c r="E82">
+        <v>1.10061661935989</v>
+      </c>
+      <c r="F82">
         <v>0.9395269962168035</v>
       </c>
-      <c r="F82">
-        <v>1.025679758308157</v>
-      </c>
       <c r="G82">
-        <v>0.9858450641404348</v>
+        <v>0.9732471426180656</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3358,22 +3346,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>1.129587941665851</v>
+        <v>0.9713569099573613</v>
       </c>
       <c r="C83">
-        <v>0.9713569099573613</v>
+        <v>1.000431592576608</v>
       </c>
       <c r="D83">
         <v>0.8371651149534486</v>
       </c>
       <c r="E83">
+        <v>1.129587941665851</v>
+      </c>
+      <c r="F83">
         <v>0.9148904286786633</v>
       </c>
-      <c r="F83">
-        <v>1.000431592576608</v>
-      </c>
       <c r="G83">
-        <v>0.9763330456942563</v>
+        <v>0.9577707626574621</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3387,22 +3375,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>1.185181560144857</v>
+        <v>0.9787810383747179</v>
       </c>
       <c r="C84">
-        <v>0.9787810383747179</v>
+        <v>1.000071932096101</v>
       </c>
       <c r="D84">
         <v>0.8344290328709862</v>
       </c>
       <c r="E84">
+        <v>1.185181560144857</v>
+      </c>
+      <c r="F84">
         <v>0.9261477953097257</v>
       </c>
-      <c r="F84">
-        <v>1.000071932096101</v>
-      </c>
       <c r="G84">
-        <v>0.9901855960657768</v>
+        <v>0.9664113089544021</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3416,22 +3404,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>1.136341391797984</v>
+        <v>0.9783797341359417</v>
       </c>
       <c r="C85">
-        <v>0.9783797341359417</v>
+        <v>1.000143864192202</v>
       </c>
       <c r="D85">
         <v>0.8416872506175186</v>
       </c>
       <c r="E85">
+        <v>1.136341391797984</v>
+      </c>
+      <c r="F85">
         <v>0.9211163754052218</v>
       </c>
-      <c r="F85">
-        <v>1.000143864192202</v>
-      </c>
       <c r="G85">
-        <v>0.9812600591028455</v>
+        <v>0.9619139704691956</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3445,22 +3433,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>1.141920328863659</v>
+        <v>0.9870077752696262</v>
       </c>
       <c r="C86">
-        <v>0.9870077752696262</v>
+        <v>1.000503524672709</v>
       </c>
       <c r="D86">
         <v>0.8394451833555007</v>
       </c>
       <c r="E86">
+        <v>1.141920328863659</v>
+      </c>
+      <c r="F86">
         <v>0.9481265168354578</v>
       </c>
-      <c r="F86">
-        <v>1.000503524672709</v>
-      </c>
       <c r="G86">
-        <v>0.9872887916428074</v>
+        <v>0.9692589853802955</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3474,22 +3462,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>1.084662816873838</v>
+        <v>0.9671933784800602</v>
       </c>
       <c r="C87">
-        <v>0.9671933784800602</v>
+        <v>0.9832398216084016</v>
       </c>
       <c r="D87">
         <v>0.8331369941098233</v>
       </c>
       <c r="E87">
+        <v>1.084662816873838</v>
+      </c>
+      <c r="F87">
         <v>0.9188219520234223</v>
       </c>
-      <c r="F87">
-        <v>0.9832398216084016</v>
-      </c>
       <c r="G87">
-        <v>0.9622481352647728</v>
+        <v>0.9472686930925655</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3503,22 +3491,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>1.089850249584027</v>
+        <v>0.9841484825683471</v>
       </c>
       <c r="C88">
-        <v>0.9841484825683471</v>
+        <v>0.9917278089483527</v>
       </c>
       <c r="D88">
         <v>0.8823104693140795</v>
       </c>
       <c r="E88">
+        <v>1.089850249584027</v>
+      </c>
+      <c r="F88">
         <v>0.941196581017322</v>
       </c>
-      <c r="F88">
-        <v>0.9917278089483527</v>
-      </c>
       <c r="G88">
-        <v>0.982141908441528</v>
+        <v>0.9680344742228582</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3532,22 +3520,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>1.121757854556132</v>
+        <v>0.9980938048658139</v>
       </c>
       <c r="C89">
-        <v>0.9980938048658139</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>0.8695040851225537</v>
       </c>
       <c r="E89">
+        <v>1.121757854556132</v>
+      </c>
+      <c r="F89">
         <v>0.9729653698165786</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
       <c r="G89">
-        <v>0.9949770663771391</v>
+        <v>0.9802884374166024</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3561,22 +3549,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.136047763531369</v>
+        <v>1.000551793328317</v>
       </c>
       <c r="C90">
-        <v>1.000551793328317</v>
+        <v>1.004100129477773</v>
       </c>
       <c r="D90">
         <v>0.8729241877256317</v>
       </c>
       <c r="E90">
+        <v>1.136047763531369</v>
+      </c>
+      <c r="F90">
         <v>0.9718008968317666</v>
       </c>
-      <c r="F90">
-        <v>1.004100129477773</v>
-      </c>
       <c r="G90">
-        <v>0.9999600438286266</v>
+        <v>0.9838901907736118</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3590,22 +3578,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>1.142311833219144</v>
+        <v>1.005467770253323</v>
       </c>
       <c r="C91">
-        <v>1.005467770253323</v>
+        <v>0.993094518774277</v>
       </c>
       <c r="D91">
         <v>0.8679460383811514</v>
       </c>
       <c r="E91">
+        <v>1.142311833219144</v>
+      </c>
+      <c r="F91">
         <v>0.9950432856885475</v>
       </c>
-      <c r="F91">
-        <v>0.993094518774277</v>
-      </c>
       <c r="G91">
-        <v>1.001815137719766</v>
+        <v>0.9858509578188021</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3619,22 +3607,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.107957326025252</v>
+        <v>1.008577878103837</v>
       </c>
       <c r="C92">
-        <v>1.008577878103837</v>
+        <v>1.014674147604661</v>
       </c>
       <c r="D92">
         <v>0.8780543416302489</v>
       </c>
       <c r="E92">
+        <v>1.107957326025252</v>
+      </c>
+      <c r="F92">
         <v>0.9874265207810666</v>
       </c>
-      <c r="F92">
-        <v>1.014674147604661</v>
-      </c>
       <c r="G92">
-        <v>1.00145317856129</v>
+        <v>0.9900097249869542</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3648,22 +3636,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.114221395713027</v>
+        <v>1.006471030850263</v>
       </c>
       <c r="C93">
-        <v>1.006471030850263</v>
+        <v>1.013739030355344</v>
       </c>
       <c r="D93">
         <v>0.8647539426182785</v>
       </c>
       <c r="E93">
+        <v>1.114221395713027</v>
+      </c>
+      <c r="F93">
         <v>0.9840533410089387</v>
       </c>
-      <c r="F93">
-        <v>1.013739030355344</v>
-      </c>
       <c r="G93">
-        <v>0.998889517093303</v>
+        <v>0.9865995115734022</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3677,22 +3665,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.106195556425565</v>
+        <v>1.005618259342864</v>
       </c>
       <c r="C94">
-        <v>1.005618259342864</v>
+        <v>1.013163573586534</v>
       </c>
       <c r="D94">
         <v>0.8749762492874787</v>
       </c>
       <c r="E94">
+        <v>1.106195556425565</v>
+      </c>
+      <c r="F94">
         <v>0.9663363179542493</v>
       </c>
-      <c r="F94">
-        <v>1.013163573586534</v>
-      </c>
       <c r="G94">
-        <v>0.9971861854581998</v>
+        <v>0.9839547930354353</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3706,22 +3694,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.115493784868357</v>
+        <v>1.019262603461249</v>
       </c>
       <c r="C95">
-        <v>1.019262603461249</v>
+        <v>1.019421665947346</v>
       </c>
       <c r="D95">
         <v>0.9109633288998671</v>
       </c>
       <c r="E95">
+        <v>1.115493784868357</v>
+      </c>
+      <c r="F95">
         <v>0.9761983142371308</v>
       </c>
-      <c r="F95">
-        <v>1.019421665947346</v>
-      </c>
       <c r="G95">
-        <v>1.012574368405202</v>
+        <v>0.9986607275906887</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3735,22 +3723,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.125477145933248</v>
+        <v>1.02242287434161</v>
       </c>
       <c r="C96">
-        <v>1.02242287434161</v>
+        <v>1.031650122284563</v>
       </c>
       <c r="D96">
         <v>0.9098992969789094</v>
       </c>
       <c r="E96">
+        <v>1.125477145933248</v>
+      </c>
+      <c r="F96">
         <v>0.9814842265080732</v>
       </c>
-      <c r="F96">
-        <v>1.031650122284563</v>
-      </c>
       <c r="G96">
-        <v>1.018280597992635</v>
+        <v>1.004804030844412</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3764,22 +3752,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.125672898110991</v>
+        <v>1.031452219714071</v>
       </c>
       <c r="C97">
-        <v>1.031452219714071</v>
+        <v>1.048554164868364</v>
       </c>
       <c r="D97">
         <v>0.9118753562606878</v>
       </c>
       <c r="E97">
+        <v>1.125672898110991</v>
+      </c>
+      <c r="F97">
         <v>0.9825158286422675</v>
       </c>
-      <c r="F97">
-        <v>1.048554164868364</v>
-      </c>
       <c r="G97">
-        <v>1.024907732626457</v>
+        <v>1.012302220195014</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3793,22 +3781,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.142996965841245</v>
+        <v>1.026536242789065</v>
       </c>
       <c r="C98">
-        <v>1.026536242789065</v>
+        <v>1.035606387570134</v>
       </c>
       <c r="D98">
         <v>0.9207676230286909</v>
       </c>
       <c r="E98">
+        <v>1.142996965841245</v>
+      </c>
+      <c r="F98">
         <v>0.994532847122148</v>
       </c>
-      <c r="F98">
-        <v>1.035606387570134</v>
-      </c>
       <c r="G98">
-        <v>1.027288352836948</v>
+        <v>1.013348955443145</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3822,22 +3810,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.174415190368993</v>
+        <v>1.023727113117632</v>
       </c>
       <c r="C99">
-        <v>1.023727113117632</v>
+        <v>1.034671270320817</v>
       </c>
       <c r="D99">
         <v>0.9160554816644499</v>
       </c>
       <c r="E99">
+        <v>1.174415190368993</v>
+      </c>
+      <c r="F99">
         <v>0.999895026069678</v>
       </c>
-      <c r="F99">
-        <v>1.034671270320817</v>
-      </c>
       <c r="G99">
-        <v>1.03213602501311</v>
+        <v>1.015778424303496</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3851,22 +3839,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.176079083879808</v>
+        <v>1.028643090042639</v>
       </c>
       <c r="C100">
-        <v>1.028643090042639</v>
+        <v>1.031578190188462</v>
       </c>
       <c r="D100">
         <v>0.9023370701121033</v>
       </c>
       <c r="E100">
+        <v>1.176079083879808</v>
+      </c>
+      <c r="F100">
         <v>1.008173285229875</v>
       </c>
-      <c r="F100">
-        <v>1.031578190188462</v>
-      </c>
       <c r="G100">
-        <v>1.031409124371854</v>
+        <v>1.014912054521443</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3880,22 +3868,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.15914652050504</v>
+        <v>1.020466516177577</v>
       </c>
       <c r="C101">
-        <v>1.020466516177577</v>
+        <v>1.029420227305424</v>
       </c>
       <c r="D101">
         <v>0.8915067452023561</v>
       </c>
       <c r="E101">
+        <v>1.15914652050504</v>
+      </c>
+      <c r="F101">
         <v>1.003808007078691</v>
       </c>
-      <c r="F101">
-        <v>1.029420227305424</v>
-      </c>
       <c r="G101">
-        <v>1.022535454163706</v>
+        <v>1.007896973933856</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3909,22 +3897,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.159440148771655</v>
+        <v>1.0159016804615</v>
       </c>
       <c r="C102">
-        <v>1.0159016804615</v>
+        <v>1.029276363113221</v>
       </c>
       <c r="D102">
         <v>0.8892646779403383</v>
       </c>
       <c r="E102">
+        <v>1.159440148771655</v>
+      </c>
+      <c r="F102">
         <v>0.9921527309792012</v>
       </c>
-      <c r="F102">
-        <v>1.029276363113221</v>
-      </c>
       <c r="G102">
-        <v>1.019582015201413</v>
+        <v>1.00419074168734</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3938,22 +3926,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.15581873348341</v>
+        <v>1.016955104088287</v>
       </c>
       <c r="C103">
-        <v>1.016955104088287</v>
+        <v>1.033951949359804</v>
       </c>
       <c r="D103">
         <v>0.8954968649059473</v>
       </c>
       <c r="E103">
+        <v>1.15581873348341</v>
+      </c>
+      <c r="F103">
         <v>1.005425504122434</v>
       </c>
-      <c r="F103">
-        <v>1.033951949359804</v>
-      </c>
       <c r="G103">
-        <v>1.022682591188562</v>
+        <v>1.009342952779616</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3967,22 +3955,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.150533424684349</v>
+        <v>1.016102332580888</v>
       </c>
       <c r="C104">
-        <v>1.016102332580888</v>
+        <v>1.031722054380664</v>
       </c>
       <c r="D104">
         <v>0.8968649059471785</v>
       </c>
       <c r="E104">
+        <v>1.150533424684349</v>
+      </c>
+      <c r="F104">
         <v>1.003131676574046</v>
       </c>
-      <c r="F104">
-        <v>1.031722054380664</v>
-      </c>
       <c r="G104">
-        <v>1.02096794443411</v>
+        <v>1.007789741803057</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3996,22 +3984,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.124009004600176</v>
+        <v>1.018008527715074</v>
       </c>
       <c r="C105">
-        <v>1.018008527715074</v>
+        <v>1.02754999280679</v>
       </c>
       <c r="D105">
         <v>0.8987269618088544</v>
       </c>
       <c r="E105">
+        <v>1.124009004600176</v>
+      </c>
+      <c r="F105">
         <v>1.018285150211927</v>
       </c>
-      <c r="F105">
-        <v>1.02754999280679</v>
-      </c>
       <c r="G105">
-        <v>1.017288265178879</v>
+        <v>1.007670026249226</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4025,22 +4013,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.12753254379955</v>
+        <v>1.014095811387008</v>
       </c>
       <c r="C106">
-        <v>1.014095811387008</v>
+        <v>1.022802474464106</v>
       </c>
       <c r="D106">
         <v>0.8920767623028691</v>
       </c>
       <c r="E106">
+        <v>1.12753254379955</v>
+      </c>
+      <c r="F106">
         <v>1.022705280786912</v>
       </c>
-      <c r="F106">
-        <v>1.022802474464106</v>
-      </c>
       <c r="G106">
-        <v>1.014981627608099</v>
+        <v>1.005369567614544</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4054,22 +4042,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.132719976509739</v>
+        <v>1.020617005267118</v>
       </c>
       <c r="C107">
-        <v>1.020617005267118</v>
+        <v>1.030139548266436</v>
       </c>
       <c r="D107">
         <v>0.8914307429222877</v>
       </c>
       <c r="E107">
+        <v>1.132719976509739</v>
+      </c>
+      <c r="F107">
         <v>1.046947680690444</v>
       </c>
-      <c r="F107">
-        <v>1.030139548266436</v>
-      </c>
       <c r="G107">
-        <v>1.021737923188873</v>
+        <v>1.014112947906875</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4083,22 +4071,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.133600861309582</v>
+        <v>1.018560321043391</v>
       </c>
       <c r="C108">
-        <v>1.018560321043391</v>
+        <v>1.021004172061574</v>
       </c>
       <c r="D108">
         <v>0.8793083792513775</v>
       </c>
       <c r="E108">
+        <v>1.133600861309582</v>
+      </c>
+      <c r="F108">
         <v>1.068007853513355</v>
       </c>
-      <c r="F108">
-        <v>1.021004172061574</v>
-      </c>
       <c r="G108">
-        <v>1.019151564188859</v>
+        <v>1.012836648511055</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4112,22 +4100,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.096701575805031</v>
+        <v>1.012340105342363</v>
       </c>
       <c r="C109">
-        <v>1.012340105342363</v>
+        <v>1.013954826643648</v>
       </c>
       <c r="D109">
         <v>0.8608398251947558</v>
       </c>
       <c r="E109">
+        <v>1.096701575805031</v>
+      </c>
+      <c r="F109">
         <v>1.079437916500216</v>
       </c>
-      <c r="F109">
-        <v>1.013954826643648</v>
-      </c>
       <c r="G109">
-        <v>1.005945068781417</v>
+        <v>1.004380174981064</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4141,22 +4129,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.050308309679945</v>
+        <v>0.9926761976423376</v>
       </c>
       <c r="C110">
-        <v>0.9926761976423376</v>
+        <v>1.007121277514027</v>
       </c>
       <c r="D110">
         <v>0.8558996769903097</v>
       </c>
       <c r="E110">
+        <v>1.050308309679945</v>
+      </c>
+      <c r="F110">
         <v>1.017760173310303</v>
       </c>
-      <c r="F110">
-        <v>1.007121277514027</v>
-      </c>
       <c r="G110">
-        <v>0.9822447294605877</v>
+        <v>0.9804344238107925</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4170,22 +4158,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.054810609768034</v>
+        <v>0.9942312515675946</v>
       </c>
       <c r="C111">
-        <v>0.9942312515675946</v>
+        <v>1.005107178823191</v>
       </c>
       <c r="D111">
         <v>0.8542656279688392</v>
       </c>
       <c r="E111">
+        <v>1.054810609768034</v>
+      </c>
+      <c r="F111">
         <v>1.035003389636691</v>
       </c>
-      <c r="F111">
-        <v>1.005107178823191</v>
-      </c>
       <c r="G111">
-        <v>0.9846063977459603</v>
+        <v>0.9837132684583857</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4199,22 +4187,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.073504942742488</v>
+        <v>1.007875595685979</v>
       </c>
       <c r="C112">
-        <v>1.007875595685979</v>
+        <v>1.003093080132355</v>
       </c>
       <c r="D112">
         <v>0.8541896256887705</v>
       </c>
       <c r="E112">
+        <v>1.073504942742488</v>
+      </c>
+      <c r="F112">
         <v>1.087337773777855</v>
       </c>
-      <c r="F112">
-        <v>1.003093080132355</v>
-      </c>
       <c r="G112">
-        <v>0.997253985796302</v>
+        <v>0.9981590173444763</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4228,22 +4216,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.068121757854556</v>
+        <v>1.003812390268372</v>
       </c>
       <c r="C113">
-        <v>1.003812390268372</v>
+        <v>1.006330024456913</v>
       </c>
       <c r="D113">
         <v>0.849895496864906</v>
       </c>
       <c r="E113">
+        <v>1.068121757854556</v>
+      </c>
+      <c r="F113">
         <v>1.096805030426054</v>
       </c>
-      <c r="F113">
-        <v>1.006330024456913</v>
-      </c>
       <c r="G113">
-        <v>0.9956936759583921</v>
+        <v>0.9988137666343959</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4257,22 +4245,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.073896447097974</v>
+        <v>1.009129671432154</v>
       </c>
       <c r="C114">
-        <v>1.009129671432154</v>
+        <v>1.0168321104877</v>
       </c>
       <c r="D114">
         <v>0.8526695800874026</v>
       </c>
       <c r="E114">
+        <v>1.073896447097974</v>
+      </c>
+      <c r="F114">
         <v>1.109313313553174</v>
       </c>
-      <c r="F114">
-        <v>1.0168321104877</v>
-      </c>
       <c r="G114">
-        <v>1.002349860319579</v>
+        <v>1.006661790870653</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4286,22 +4274,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.092003523539199</v>
+        <v>1.025532982192124</v>
       </c>
       <c r="C115">
-        <v>1.025532982192124</v>
+        <v>1.018990073370738</v>
       </c>
       <c r="D115">
         <v>0.859737792133764</v>
       </c>
       <c r="E115">
+        <v>1.092003523539199</v>
+      </c>
+      <c r="F115">
         <v>1.136402021576963</v>
       </c>
-      <c r="F115">
-        <v>1.018990073370738</v>
-      </c>
       <c r="G115">
-        <v>1.015446374624074</v>
+        <v>1.019231933545712</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4315,22 +4303,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.084956445140452</v>
+        <v>1.019663907700025</v>
       </c>
       <c r="C116">
-        <v>1.019663907700025</v>
+        <v>1.01294777729823</v>
       </c>
       <c r="D116">
         <v>0.8619798593957819</v>
       </c>
       <c r="E116">
+        <v>1.084956445140452</v>
+      </c>
+      <c r="F116">
         <v>1.13341801635546</v>
       </c>
-      <c r="F116">
-        <v>1.01294777729823</v>
-      </c>
       <c r="G116">
-        <v>1.011217790312446</v>
+        <v>1.015392334393768</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4344,22 +4332,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.113829891357541</v>
+        <v>1.022222222222222</v>
       </c>
       <c r="C117">
-        <v>1.022222222222222</v>
+        <v>1.028197381671702</v>
       </c>
       <c r="D117">
         <v>0.8825764772943188</v>
       </c>
       <c r="E117">
+        <v>1.113829891357541</v>
+      </c>
+      <c r="F117">
         <v>1.130231332440926</v>
       </c>
-      <c r="F117">
-        <v>1.028197381671702</v>
-      </c>
       <c r="G117">
-        <v>1.024610549975472</v>
+        <v>1.026848210028758</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4373,28 +4361,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.113829891357541</v>
+        <v>1.030900426385754</v>
       </c>
       <c r="C118">
-        <v>1.022222222222222</v>
+        <v>1.021435764638182</v>
       </c>
       <c r="D118">
-        <v>0.8825764772943188</v>
+        <v>0.8717461523845715</v>
       </c>
       <c r="E118">
-        <v>1.130231332440926</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="F118">
-        <v>1.028197381671702</v>
+        <v>1.145808193383882</v>
       </c>
       <c r="G118">
-        <v>1.024610549975472</v>
+        <v>1.026574850113771</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.017557060446451</v>
+      </c>
+      <c r="C119">
+        <v>1.013954826643648</v>
+      </c>
+      <c r="D119">
+        <v>0.858217746532396</v>
+      </c>
+      <c r="E119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="F119">
+        <v>1.11835743314633</v>
+      </c>
+      <c r="G119">
+        <v>1.011900044887661</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.019162277401555</v>
+      </c>
+      <c r="C120">
+        <v>1.024241116386131</v>
+      </c>
+      <c r="D120">
+        <v>0.8644119323579709</v>
+      </c>
+      <c r="E120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="F120">
+        <v>1.120925022313663</v>
+      </c>
+      <c r="G120">
+        <v>1.01897770154189</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.014246300476549</v>
+      </c>
+      <c r="C121">
+        <v>1.031074665515753</v>
+      </c>
+      <c r="D121">
+        <v>0.8527835835075053</v>
+      </c>
+      <c r="E121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="F121">
+        <v>1.094363448108445</v>
+      </c>
+      <c r="G121">
+        <v>1.010331613200563</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="C122">
+        <v>1.009926629261977</v>
+      </c>
+      <c r="D122">
+        <v>0.8252707581227436</v>
+      </c>
+      <c r="E122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="F122">
+        <v>1.081114984968374</v>
+      </c>
+      <c r="G122">
+        <v>0.9936426547561978</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9941810885377477</v>
+      </c>
+      <c r="C123">
+        <v>0.9974823766364551</v>
+      </c>
+      <c r="D123">
+        <v>0.8244347330419913</v>
+      </c>
+      <c r="E123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="F123">
+        <v>1.10128671059238</v>
+      </c>
+      <c r="G123">
+        <v>0.9985232521159739</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9964885879107097</v>
+      </c>
+      <c r="C124">
+        <v>1.002589555459646</v>
+      </c>
+      <c r="D124">
+        <v>0.8333650009500285</v>
+      </c>
+      <c r="E124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="F124">
+        <v>1.102433177491516</v>
+      </c>
+      <c r="G124">
+        <v>1.003667615229868</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.008176573865061</v>
+      </c>
+      <c r="C125">
+        <v>1.010645950222989</v>
+      </c>
+      <c r="D125">
+        <v>0.8322629678890368</v>
+      </c>
+      <c r="E125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="F125">
+        <v>1.130131887844656</v>
+      </c>
+      <c r="G125">
+        <v>1.0174509700764</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9972410333584149</v>
+      </c>
+      <c r="C126">
+        <v>1.008775715724356</v>
+      </c>
+      <c r="D126">
+        <v>0.823826714801444</v>
+      </c>
+      <c r="E126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="F126">
+        <v>1.12227912523981</v>
+      </c>
+      <c r="G126">
+        <v>1.011856068060253</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.000953097567093</v>
+      </c>
+      <c r="C127">
+        <v>0.9976981729247589</v>
+      </c>
+      <c r="D127">
+        <v>0.822306669200076</v>
+      </c>
+      <c r="E127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="F127">
+        <v>1.145460131338605</v>
+      </c>
+      <c r="G127">
+        <v>1.020468523991487</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4506,18 +4755,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4549,213 +4798,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>34.32</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L3">
-        <v>-5.03</v>
-      </c>
-      <c r="M3">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.5999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>14.36</v>
+        <v>1.657299995422363</v>
       </c>
       <c r="K4">
-        <v>1.76</v>
+        <v>13.48019981384277</v>
       </c>
       <c r="L4">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M4">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>4.4625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>36.2</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K5">
-        <v>3.04</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L5">
-        <v>-5.91</v>
-      </c>
-      <c r="M5">
-        <v>-12.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>21.55</v>
+        <v>3.07480001449585</v>
       </c>
       <c r="K6">
-        <v>4.32</v>
+        <v>36.68439865112305</v>
       </c>
       <c r="L6">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M6">
-        <v>1.6</v>
+        <v>-12.2529</v>
       </c>
     </row>
   </sheetData>
@@ -4773,19 +5004,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4793,19 +5024,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4813,19 +5044,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4833,19 +5064,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4853,19 +5084,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4873,19 +5104,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4893,19 +5124,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4913,19 +5144,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4933,19 +5164,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4953,19 +5184,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4973,19 +5204,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4993,19 +5224,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5013,19 +5244,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5033,19 +5264,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5053,19 +5284,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5073,19 +5304,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5093,19 +5324,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5113,19 +5344,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5133,19 +5364,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5153,19 +5384,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5173,19 +5404,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5426,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5203,10 +5434,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5214,21 +5445,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5236,65 +5467,54 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
